--- a/testGenerator/logs.xlsx
+++ b/testGenerator/logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studia\2_Informatyka\2_1\Zastosowanie inf w gospodarce\projekt\Nowy folder\ZWG\testGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9067BE4-E359-493C-82DF-AC37A8AF5F37}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6B1B27-525A-4448-A3E2-B930DCA71B83}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="9495" xr2:uid="{95378C5B-86C4-41A3-A2F4-FBBD2EA2CCC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>aaa</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB076755-FAFB-4CB5-963C-CB1537C72B07}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -418,6 +421,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
